--- a/CashFlow/LNT_cashflow.xlsx
+++ b/CashFlow/LNT_cashflow.xlsx
@@ -742,16 +742,16 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>883000000.0</v>
+        <v>675700000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>893000000.0</v>
+        <v>685700000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>703100000.0</v>
+        <v>495800000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>509300000.0</v>
+        <v>302000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>313700000.0</v>
@@ -1088,13 +1088,13 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>802300000.0</v>
+        <v>1599000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>847300000.0</v>
+        <v>1644000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>389400000.0</v>
+        <v>1186100000.0</v>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
